--- a/biology/Médecine/Systole/Systole.xlsx
+++ b/biology/Médecine/Systole/Systole.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La systole (du grec συστολή « contraction ») est la contraction des chambres du cœur. L'adjectif correspondant est systolique. Les quatre chambres du cœur connaissent une systole et une diastole pour que le sang soit propulsé à travers le système cardio-vasculaire.
 La systole est divisée en 3 phases pour caractériser le temps d'un souffle : protosystolique (en début de systole), mésosystolique (au milieu de la systole), télésystolique (fin).
@@ -518,7 +530,9 @@
           <t>Valeurs normales de la pression systolique chez l'humain</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Pression moyenne dans l'oreillette droit : 3 mmHg
 Pression maximale dans le ventricule droit : 18 mmHg
